--- a/Review Templete.xlsx
+++ b/Review Templete.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaz\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B7DED7-E4E6-44F2-A8EA-FE83E53D81AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,23 +24,60 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">CR5 </t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>CRS</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>The user should select and book the travel destination from the 3 top destinations, not searching.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +92,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +379,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" customWidth="1"/>
+    <col min="3" max="3" width="81.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Review Templete.xlsx
+++ b/Review Templete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B7DED7-E4E6-44F2-A8EA-FE83E53D81AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBC4A7B-A337-4A07-8964-81174C9A604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">CR5 </t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>The user should select and book the travel destination from the 3 top destinations, not searching.</t>
+  </si>
+  <si>
+    <t>SQI</t>
+  </si>
+  <si>
+    <t>No gaps</t>
   </si>
 </sst>
 </file>
@@ -53,7 +59,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -61,7 +67,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -380,17 +386,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" customWidth="1"/>
-    <col min="3" max="3" width="81.8984375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -418,6 +424,14 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Review Templete.xlsx
+++ b/Review Templete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBC4A7B-A337-4A07-8964-81174C9A604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCA9B97-C176-4FB3-AE95-A8F5586947AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,37 +25,226 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">CR5 </t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>CRS</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>The user should select and book the travel destination from the 3 top destinations, not searching.</t>
-  </si>
-  <si>
-    <t>SQI</t>
-  </si>
-  <si>
-    <t>No gaps</t>
+    <t>Review ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ID Link</t>
+  </si>
+  <si>
+    <t>Reviewer(s)</t>
+  </si>
+  <si>
+    <t>Summary of Findings</t>
+  </si>
+  <si>
+    <t>Action Items / Comments</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Next Review Date</t>
+  </si>
+  <si>
+    <t>RVW-001</t>
+  </si>
+  <si>
+    <t>SIQ Requirements</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Document does not include:
+1) Option for users to submit feedback or reviews
+2) Detailed security requirements
+3) Platform requirements (e.g., web-based vs. other platforms)</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>RVW-002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SIQ Requirements: Please add the following questions to address feedback, security, and platform needs:
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feedback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Should users be allowed to submit feedback or reviews in addition to ratings?
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SECURITY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Should the system ensure unique user IDs and secure data transmission?
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PLATFORM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Should the application be both web-based only?</t>
+    </r>
+  </si>
+  <si>
+    <t>Recommend changing the ID naming convention for consistency.</t>
+  </si>
+  <si>
+    <r>
+      <t>SIQ ID Convention:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recommend using the format </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIQ-User-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for requirement IDs                                            
+ (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>SIQ-User-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>SIQ-Login-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) instead of just </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>User-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for consistency and clarity.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,8 +260,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,7 +275,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,13 +298,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,50 +599,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="81.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="43.2">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:10" ht="28.8">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7">
+        <v>45753</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7">
+        <v>45757</v>
+      </c>
+      <c r="J2" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
+    <row r="3" spans="1:10" ht="57.6">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7">
+        <v>45753</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7">
+        <v>45757</v>
       </c>
     </row>
   </sheetData>

--- a/Review Templete.xlsx
+++ b/Review Templete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCA9B97-C176-4FB3-AE95-A8F5586947AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FED700-1CC4-4005-89DF-64B6416449FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,90 +60,10 @@
     <t>SIQ Requirements</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Document does not include:
-1) Option for users to submit feedback or reviews
-2) Detailed security requirements
-3) Platform requirements (e.g., web-based vs. other platforms)</t>
-  </si>
-  <si>
     <t>Ahmed</t>
   </si>
   <si>
     <t>RVW-002</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SIQ Requirements: Please add the following questions to address feedback, security, and platform needs:
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Feedback</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Should users be allowed to submit feedback or reviews in addition to ratings?
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SECURITY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Should the system ensure unique user IDs and secure data transmission?
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PLATFORM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Should the application be both web-based only?</t>
-    </r>
   </si>
   <si>
     <t>Recommend changing the ID naming convention for consistency.</t>
@@ -237,6 +157,41 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for consistency and clarity.</t>
+    </r>
+  </si>
+  <si>
+    <t>Document does not include:
+1) Option for users to submit feedback or reviews</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SIQ Requirements: Please add the following questions to address feedback needs:
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feedback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Should users be allowed to submit feedback or reviews in addition to ratings?
+</t>
     </r>
   </si>
 </sst>
@@ -298,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,9 +262,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -318,6 +270,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,7 +560,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -646,55 +604,55 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="28.8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>45753</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>45757</v>
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="57.6">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7">
+    <row r="3" spans="1:10" ht="43.8" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6">
         <v>45753</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="G3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="6">
         <v>45757</v>
       </c>
     </row>

--- a/Review Templete.xlsx
+++ b/Review Templete.xlsx
@@ -1,41 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FED700-1CC4-4005-89DF-64B6416449FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1909250B-37FB-473D-ACDB-0BDD7D1DE100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
+    <sheet name="CRS-REV" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+  <si>
+    <t>Review ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>Review ID</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>ID Link</t>
   </si>
   <si>
@@ -54,6 +66,9 @@
     <t>Next Review Date</t>
   </si>
   <si>
+    <t>Git-Version</t>
+  </si>
+  <si>
     <t>RVW-001</t>
   </si>
   <si>
@@ -61,9 +76,6 @@
   </si>
   <si>
     <t>Ahmed</t>
-  </si>
-  <si>
-    <t>RVW-002</t>
   </si>
   <si>
     <t>Recommend changing the ID naming convention for consistency.</t>
@@ -160,11 +172,14 @@
     </r>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>RVW-002</t>
+  </si>
+  <si>
     <t>Document does not include:
 1) Option for users to submit feedback or reviews</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
   <si>
     <r>
@@ -221,7 +236,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,12 +246,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,7 +270,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -559,29 +567,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2">
+    <row r="1" spans="1:10" ht="30.75">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -601,62 +610,76 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6">
+    <row r="2" spans="1:10" ht="28.9">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
         <v>45753</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5">
         <v>45757</v>
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.8" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45753</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6">
-        <v>45753</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>45757</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4161EB4-B033-4AE4-A29F-83FCC811EB29}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Review Templete.xlsx
+++ b/Review Templete.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1909250B-37FB-473D-ACDB-0BDD7D1DE100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5FBEEFF-CCC1-49C7-8D0C-4860243C5E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
-    <sheet name="CRS-REV" sheetId="2" r:id="rId2"/>
+    <sheet name="CRS-REV" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Review ID</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Git-Version</t>
   </si>
   <si>
-    <t>RVW-001</t>
+    <t>REV-001</t>
   </si>
   <si>
     <t>SIQ Requirements</t>
@@ -175,7 +175,7 @@
     <t>Done</t>
   </si>
   <si>
-    <t>RVW-002</t>
+    <t>REV-002</t>
   </si>
   <si>
     <t>Document does not include:
@@ -207,6 +207,65 @@
       </rPr>
       <t xml:space="preserve"> – Should users be allowed to submit feedback or reviews in addition to ratings?
 </t>
+    </r>
+  </si>
+  <si>
+    <t>CRS_Travel_Advisor_Web_Application</t>
+  </si>
+  <si>
+    <t>Abdulkarim Abdo</t>
+  </si>
+  <si>
+    <t>Naming Convention sequencing all requirements together, this will cause problems separating each requirement work products.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CRS Naming Convention: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>naming should start from 000 for each item. so login and all other different requirements should begin with 000.</t>
+    </r>
+  </si>
+  <si>
+    <t>CRS_V1.1</t>
+  </si>
+  <si>
+    <t>Missing some CRS requirements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CRS Missing Requirements:  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-Application will be Pc/Web Based only.
+2-Each user will have a unique ID.</t>
     </r>
   </si>
 </sst>
@@ -214,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +293,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -262,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,6 +356,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -673,13 +763,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4161EB4-B033-4AE4-A29F-83FCC811EB29}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B0AFA4-C54C-4E1A-B612-21B37F1D1561}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30.75">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="56.25" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45757</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45757</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Review Templete.xlsx
+++ b/Review Templete.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5FBEEFF-CCC1-49C7-8D0C-4860243C5E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A80B8E6-7EC9-4200-951F-4DA5AC6BFEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
     <sheet name="CRS-REV" sheetId="3" r:id="rId2"/>
+    <sheet name="PMP_REV" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>Review ID</t>
   </si>
@@ -267,6 +268,46 @@
       <t>1-Application will be Pc/Web Based only.
 2-Each user will have a unique ID.</t>
     </r>
+  </si>
+  <si>
+    <t>RVW-001</t>
+  </si>
+  <si>
+    <t>RVW-002</t>
+  </si>
+  <si>
+    <t>RVW-003</t>
+  </si>
+  <si>
+    <t>Travel Advisor PMP</t>
+  </si>
+  <si>
+    <t>Asmaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Duplicate numbering found (two sections labeled "11")</t>
+  </si>
+  <si>
+    <t>Update section numbers to avoid confusion. Rename "Configuration Management" to Section 12.</t>
+  </si>
+  <si>
+    <t>RVW-004</t>
+  </si>
+  <si>
+    <t>The repository link is broken across two lines, which may cause issues in access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix the link formatting. Place the complete URL on one line: GitHub Repo
+</t>
+  </si>
+  <si>
+    <t>RVW-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The WBS lacks granularity in Testing sections	</t>
+  </si>
+  <si>
+    <t>Break down testing into types (functional, regression, etc.)</t>
   </si>
 </sst>
 </file>
@@ -308,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,9 +407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -374,6 +418,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,18 +738,18 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -704,7 +781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.9">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -731,7 +808,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -766,23 +843,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B0AFA4-C54C-4E1A-B612-21B37F1D1561}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75">
+    <row r="1" spans="1:10" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -821,17 +898,17 @@
       <c r="B2" s="5">
         <v>45757</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -842,24 +919,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="5">
         <v>45757</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -877,4 +954,178 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4E410F-470B-4A7F-8500-BF874ED21060}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="14" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="14"/>
+    <col min="6" max="6" width="52.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="14"/>
+    <col min="9" max="9" width="9.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="43.2">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" ht="28.8">
+      <c r="A2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="20">
+        <v>45753</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="20">
+        <v>45757</v>
+      </c>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="20">
+        <v>45753</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="20">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8">
+      <c r="A4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="25">
+        <v>45757</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8">
+      <c r="A5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="25">
+        <v>45757</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8">
+      <c r="A6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="25">
+        <v>45757</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="F7" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Review Templete.xlsx
+++ b/Review Templete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A80B8E6-7EC9-4200-951F-4DA5AC6BFEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E053D-996E-4531-9118-E46DC589D4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Review Templete.xlsx
+++ b/Review Templete.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E053D-996E-4531-9118-E46DC589D4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B138247-AD77-4F23-9F27-8703CC039273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
     <sheet name="CRS-REV" sheetId="3" r:id="rId2"/>
-    <sheet name="PMP_REV" sheetId="6" r:id="rId3"/>
+    <sheet name="PMP_REV" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
   <si>
     <t>Review ID</t>
   </si>
@@ -309,12 +309,18 @@
   <si>
     <t>Break down testing into types (functional, regression, etc.)</t>
   </si>
+  <si>
+    <t>No gaps</t>
+  </si>
+  <si>
+    <t>RVW-006</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +353,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -381,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,38 +431,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,10 +886,10 @@
       <c r="B2" s="5">
         <v>45757</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
@@ -926,10 +914,10 @@
       <c r="B3" s="5">
         <v>45757</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
@@ -957,173 +945,215 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4E410F-470B-4A7F-8500-BF874ED21060}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8465B27E-4491-47FE-A86E-717BB384923D}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="14" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="14"/>
-    <col min="6" max="6" width="52.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="14"/>
-    <col min="9" max="9" width="9.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="28.8">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="5">
         <v>45753</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="20">
-        <v>45757</v>
-      </c>
-      <c r="J2" s="15"/>
+      <c r="I2" s="5">
+        <v>45757</v>
+      </c>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="43.95" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="5">
         <v>45753</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="5">
         <v>45757</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8">
-      <c r="A4" s="14" t="s">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="25">
-        <v>45757</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="14">
+        <v>45757</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45757</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="28.8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="25">
-        <v>45757</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="14">
+        <v>45757</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="15" t="s">
         <v>35</v>
       </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45757</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="28.8">
-      <c r="A6" s="14" t="s">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="25">
-        <v>45757</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="14">
+        <v>45757</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="14">
+        <v>45757</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="16"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Review Templete.xlsx
+++ b/Review Templete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B138247-AD77-4F23-9F27-8703CC039273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329EF977-7E55-475D-88AB-3249DF50415B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>Review ID</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>RVW-006</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -949,7 +952,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1142,6 +1145,9 @@
       <c r="I7" s="5">
         <v>45757</v>
       </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="16"/>

--- a/Review Templete.xlsx
+++ b/Review Templete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329EF977-7E55-475D-88AB-3249DF50415B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B138247-AD77-4F23-9F27-8703CC039273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
   <si>
     <t>Review ID</t>
   </si>
@@ -314,9 +314,6 @@
   </si>
   <si>
     <t>RVW-006</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -952,7 +949,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1145,9 +1142,6 @@
       <c r="I7" s="5">
         <v>45757</v>
       </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="16"/>

--- a/Review Templete.xlsx
+++ b/Review Templete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B138247-AD77-4F23-9F27-8703CC039273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E45205-CAE4-4EE1-8C82-33DCE48FC721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ-REV" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>Review ID</t>
   </si>
@@ -270,13 +270,13 @@
     </r>
   </si>
   <si>
-    <t>RVW-001</t>
-  </si>
-  <si>
-    <t>RVW-002</t>
-  </si>
-  <si>
-    <t>RVW-003</t>
+    <t>REV-003</t>
+  </si>
+  <si>
+    <t>No Gaps.</t>
+  </si>
+  <si>
+    <t>CRS_V1.2</t>
   </si>
   <si>
     <t>Travel Advisor PMP</t>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>Update section numbers to avoid confusion. Rename "Configuration Management" to Section 12.</t>
-  </si>
-  <si>
-    <t>RVW-004</t>
   </si>
   <si>
     <t>The repository link is broken across two lines, which may cause issues in access</t>
@@ -301,19 +298,16 @@
 </t>
   </si>
   <si>
-    <t>RVW-005</t>
-  </si>
-  <si>
     <t xml:space="preserve">The WBS lacks granularity in Testing sections	</t>
   </si>
   <si>
     <t>Break down testing into types (functional, regression, etc.)</t>
   </si>
   <si>
+    <t>REV-004</t>
+  </si>
+  <si>
     <t>No gaps</t>
-  </si>
-  <si>
-    <t>RVW-006</t>
   </si>
 </sst>
 </file>
@@ -411,9 +405,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -437,6 +428,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -726,18 +720,18 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="28.9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -769,7 +763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8">
+    <row r="2" spans="1:10" ht="28.9">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -796,7 +790,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -809,10 +803,10 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -829,25 +823,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B0AFA4-C54C-4E1A-B612-21B37F1D1561}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:10" ht="28.9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -893,21 +887,21 @@
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -921,24 +915,85 @@
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45758</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="2:2" ht="15">
+      <c r="B17" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -948,21 +1003,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8465B27E-4491-47FE-A86E-717BB384923D}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2">
+    <row r="1" spans="1:10" ht="43.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -990,28 +1045,28 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="28.8">
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="30.75">
       <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45753</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13">
+        <v>45757</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5">
@@ -1019,50 +1074,50 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45753</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="13">
+        <v>45757</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="5">
         <v>45757</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="14">
+    <row r="4" spans="1:10" ht="30.75">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="13">
         <v>45757</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>31</v>
+      <c r="F4" t="s">
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1071,24 +1126,21 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="14">
+    <row r="5" spans="1:10" ht="30.75">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="13">
         <v>45757</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>35</v>
+      <c r="F5" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1097,63 +1149,19 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="14">
-        <v>45757</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5">
-        <v>45757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="14">
-        <v>45757</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="5">
-        <v>45757</v>
-      </c>
-    </row>
+    <row r="6" spans="1:10" ht="15"/>
+    <row r="7" spans="1:10" ht="30.75" customHeight="1"/>
     <row r="8" spans="1:10">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="16"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
